--- a/UAF/kernel_UAFs.xlsx
+++ b/UAF/kernel_UAFs.xlsx
@@ -4,11 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="all" sheetId="8" r:id="rId1"/>
+    <sheet name="2018" sheetId="3" r:id="rId2"/>
+    <sheet name="2017" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="2" r:id="rId4"/>
+    <sheet name="2015" sheetId="6" r:id="rId5"/>
+    <sheet name="02-14" sheetId="11" r:id="rId6"/>
+    <sheet name="unnormal" sheetId="12" r:id="rId7"/>
+    <sheet name="2014" sheetId="7" r:id="rId8"/>
+    <sheet name="2013" sheetId="9" r:id="rId9"/>
+    <sheet name="2009" sheetId="10" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="res" localSheetId="0">all!$A$1:$A$80</definedName>
+    <definedName name="unnormal_uaf_1" localSheetId="6">unnormal!$A$1:$C$44</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,8 +31,33 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="res" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="C:\Users\Administrator\Desktop\res.txt" space="1" consecutive="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="unnormal_uaf" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="E:\lucky\Kernel_Vulnerabilities\UAF\unnormal_uaf.txt" delimiter="&amp;">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="220">
   <si>
     <t>CVE-2018-10675</t>
   </si>
@@ -205,26 +243,535 @@
   </si>
   <si>
     <t>CVE-2014-9940</t>
+  </si>
+  <si>
+    <t>Linux kernel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2015-8961</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avoid free</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2015-7312</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有patch race condition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2015-5706</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>double fput(),去掉一次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2015-3636</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将指针置为null</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2015-1421</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avoid use</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在9576没有修复的bug上修复，func有问题，杜绝该使用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2016-9794</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Race condition，调换顺序，avoid use()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于使用迭代器出现问题，对迭代的指针进行处理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>和8655的打patch一样</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Race condition，加锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指针置为null</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？没看出来</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock， race condition，avoid use()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指针置为null</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>指针置为null</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加很多函数？？？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2016-4470</t>
+  </si>
+  <si>
+    <t>avoid free</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2016-4794</t>
+  </si>
+  <si>
+    <t>增加了新的函数？？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2016-4558</t>
+  </si>
+  <si>
+    <t>增加了新的函数？？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2016-4557</t>
+  </si>
+  <si>
+    <t>去掉会导致问题的函数，avoid use，free</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2016-2547</t>
+  </si>
+  <si>
+    <t>race condition，timer-&gt;lock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2016-2546</t>
+  </si>
+  <si>
+    <t>race condition，对于ioctl加锁，用新的全局的锁替换原来的锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>race condition，在两个函数外加锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2016-0728</t>
+  </si>
+  <si>
+    <t>运行100次才可能会触发的concurrency ？？？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2016-0723</t>
+  </si>
+  <si>
+    <t>race condition 增加了一个函数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>race condition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>race condition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux kernel </t>
+  </si>
+  <si>
+    <t>没有patch</t>
+  </si>
+  <si>
+    <t>avoid  free  根源上</t>
+  </si>
+  <si>
+    <t>指针置为null</t>
+  </si>
+  <si>
+    <t>CVE-2017-0861</t>
+  </si>
+  <si>
+    <t>avoid use lock</t>
+  </si>
+  <si>
+    <t>并没有修复成功</t>
+  </si>
+  <si>
+    <t>race 删除函数</t>
+  </si>
+  <si>
+    <t>avoid use 增加判断和flag</t>
+  </si>
+  <si>
+    <t>CVE-2017-15649</t>
+  </si>
+  <si>
+    <t>？？？</t>
+  </si>
+  <si>
+    <t>race condition ？？</t>
+  </si>
+  <si>
+    <t>改动很大？？？</t>
+  </si>
+  <si>
+    <t>改动很多？？？</t>
+  </si>
+  <si>
+    <t>CVE-2017-17975</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2017-17053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2013-7446</t>
+  </si>
+  <si>
+    <t>CVE-2015-0312</t>
+  </si>
+  <si>
+    <t>CVE-2015-1209</t>
+  </si>
+  <si>
+    <t>CVE-2015-1421</t>
+  </si>
+  <si>
+    <t>CVE-2015-3636</t>
+  </si>
+  <si>
+    <t>CVE-2015-5706</t>
+  </si>
+  <si>
+    <t>CVE-2015-8812</t>
+  </si>
+  <si>
+    <t>CVE-2016-2384</t>
+  </si>
+  <si>
+    <t>CVE-2016-3951</t>
+  </si>
+  <si>
+    <t>CVE-2009-4141</t>
+  </si>
+  <si>
+    <t>CVE-2014-4653</t>
+  </si>
+  <si>
+    <t>CVE-2014-4654</t>
+  </si>
+  <si>
+    <t>CVE-2016-2544</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2016-7117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwe-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CWE-362</t>
+  </si>
+  <si>
+    <t>cwe-362</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwe-362</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CWE-264</t>
+  </si>
+  <si>
+    <t>Use-after-free vulnerability in the snd_pcm_info function in the ALSA subsystem in the Linux kernel allows attackers to gain privileges via unspecified vectors.</t>
+  </si>
+  <si>
+    <t>net/packet/af_packet.c in the Linux kernel before 4.13.6 allows local users to gain privileges via crafted system calls that trigger mishandling of packet_fanout data structures, because of a race condition (involving fanout_add and packet_do_bind) that leads to a use-after-free, a different vulnerability than CVE-2017-6346.</t>
+  </si>
+  <si>
+    <t>CVE-2018-18559</t>
+  </si>
+  <si>
+    <t>In the Linux kernel through 4.19, a use-after-free can occur due to a race condition between fanout_add from setsockopt and bind on an AF_PACKET socket. This issue exists because of the 15fe076edea787807a7cdc168df832544b58eba6 incomplete fix for a race condition. The code mishandles a certain multithreaded case involving a packet_do_bind unregister action followed by a packet_notifier register action. Later, packet_release operates on only one of the two applicable linked lists. The attacker can achieve Program Counter control.</t>
+  </si>
+  <si>
+    <t>CVE-2018-5814</t>
+  </si>
+  <si>
+    <t>In the Linux Kernel before version 4.16.11, 4.14.43, 4.9.102, and 4.4.133, multiple race condition errors when handling probe, disconnect, and rebind operations can be exploited to trigger a use-after-free condition or a NULL pointer dereference by sending multiple USB over IP packets.</t>
+  </si>
+  <si>
+    <t>CVE-2017-16939</t>
+  </si>
+  <si>
+    <t>The XFRM dump policy implementation in net/xfrm/xfrm_user.c in the Linux kernel before 4.13.11 allows local users to gain privileges or cause a denial of service (use-after-free) via a crafted SO_RCVBUF setsockopt system call in conjunction with XFRM_MSG_GETPOLICY Netlink messages.</t>
+  </si>
+  <si>
+    <t>CVE-2011-0714</t>
+  </si>
+  <si>
+    <t>CWE-399</t>
+  </si>
+  <si>
+    <t>Use-after-free vulnerability in a certain Red Hat patch for the RPC server sockets functionality in the Linux kernel 2.6.32 on Red Hat Enterprise Linux (RHEL) 6 might allow remote attackers to cause a denial of service (crash) via malformed data in a packet, related to lockd and the svc_xprt_received function.</t>
+  </si>
+  <si>
+    <t>CVE-2013-1767</t>
+  </si>
+  <si>
+    <t>Use-after-free vulnerability in the shmem_remount_fs function in mm/shmem.c in the Linux kernel before 3.7.10 allows local users to gain privileges or cause a denial of service (system crash) by remounting a tmpfs filesystem without specifying a required mpol (aka mempolicy) mount option.</t>
+  </si>
+  <si>
+    <t>CVE-2013-1797</t>
+  </si>
+  <si>
+    <t>Use-after-free vulnerability in arch/x86/kvm/x86.c in the Linux kernel through 3.8.4 allows guest OS users to cause a denial of service (host OS memory corruption) or possibly have unspecified other impact via a crafted application that triggers use of a guest physical address (GPA) in (1) movable or (2) removable memory during an MSR_KVM_SYSTEM_TIME kvm_set_msr_common operation.</t>
+  </si>
+  <si>
+    <t>CVE-2013-2017</t>
+  </si>
+  <si>
+    <t>The veth (aka virtual Ethernet) driver in the Linux kernel before 2.6.34 does not properly manage skbs during congestion, which allows remote attackers to cause a denial of service (system crash) by leveraging lack of skb consumption in conjunction with a double-free error.</t>
+  </si>
+  <si>
+    <t>CVE-2013-4127</t>
+  </si>
+  <si>
+    <t>Use-after-free vulnerability in the vhost_net_set_backend function in drivers/vhost/net.c in the Linux kernel through 3.10.3 allows local users to cause a denial of service (OOPS and system crash) via vectors involving powering on a virtual machine.</t>
+  </si>
+  <si>
+    <t>CVE-2013-4343</t>
+  </si>
+  <si>
+    <t>Use-after-free vulnerability in drivers/net/tun.c in the Linux kernel through 3.11.1 allows local users to gain privileges by leveraging the CAP_NET_ADMIN capability and providing an invalid tuntap interface name in a TUNSETIFF ioctl call.</t>
+  </si>
+  <si>
+    <t>CVE-2013-7026</t>
+  </si>
+  <si>
+    <t>Multiple race conditions in ipc/shm.c in the Linux kernel before 3.12.2 allow local users to cause a denial of service (use-after-free and system crash) or possibly have unspecified other impact via a crafted application that uses shmctl IPC_RMID operations in conjunction with other shm system calls.</t>
+  </si>
+  <si>
+    <t>NVD-CWE-Other</t>
+  </si>
+  <si>
+    <t>Use-after-free vulnerability in net/unix/af_unix.c in the Linux kernel before 4.3.3 allows local users to bypass intended AF_UNIX socket permissions or cause a denial of service (panic) via crafted epoll_ctl calls.</t>
+  </si>
+  <si>
+    <t>Use-after-free vulnerability in the VisibleSelection::nonBoundaryShadowTreeRootNode function in core/editing/VisibleSelection.cpp in the DOM implementation in Blink, as used in Google Chrome before 40.0.2214.111 on Windows, OS X, and Linux and before 40.0.2214.109 on Android, allows remote attackers to cause a denial of service or possibly have unspecified other impact via crafted JavaScript code that triggers improper handling of a shadow-root anchor.</t>
+  </si>
+  <si>
+    <t>Use-after-free vulnerability in the sctp_assoc_update function in net/sctp/associola.c in the Linux kernel before 3.18.8 allows remote attackers to cause a denial of service (slab corruption and panic) or possibly have unspecified other impact by triggering an INIT collision that leads to improper handling of shared-key data.</t>
+  </si>
+  <si>
+    <t>The ping_unhash function in net/ipv4/ping.c in the Linux kernel before 4.0.3 does not initialize a certain list data structure during an unhash operation, which allows local users to gain privileges or cause a denial of service (use-after-free and system crash) by leveraging the ability to make a SOCK_DGRAM socket system call for the IPPROTO_ICMP or IPPROTO_ICMPV6 protocol, and then making a connect system call after a disconnect.</t>
+  </si>
+  <si>
+    <t>Use-after-free vulnerability in the path_openat function in fs/namei.c in the Linux kernel 3.x and 4.x before 4.0.4 allows local users to cause a denial of service or possibly have unspecified other impact via O_TMPFILE filesystem operations that leverage a duplicate cleanup operation.</t>
+  </si>
+  <si>
+    <t>CVE-2015-7312</t>
+  </si>
+  <si>
+    <t>Multiple race conditions in the Advanced Union Filesystem (aufs) aufs3-mmap.patch and aufs4-mmap.patch patches for the Linux kernel 3.x and 4.x allow local users to cause a denial of service (use-after-free and BUG) or possibly gain privileges via a (1) madvise or (2) msync system call, related to mm/madvise.c and mm/msync.c.</t>
+  </si>
+  <si>
+    <t>drivers/infiniband/hw/cxgb3/iwch_cm.c in the Linux kernel before 4.5 does not properly identify error conditions, which allows remote attackers to execute arbitrary code or cause a denial of service (use-after-free) via crafted packets.</t>
+  </si>
+  <si>
+    <t>CVE-2008-3077</t>
+  </si>
+  <si>
+    <t>arch/x86/kernel/ptrace.c in the Linux kernel before 2.6.25.10 on the x86_64 platform leaks task_struct references into the sys32_ptrace function, which allows local users to cause a denial of service (system crash) or have unspecified other impact via unknown vectors, possibly a use-after-free vulnerability.</t>
+  </si>
+  <si>
+    <t>CVE-2006-2444</t>
+  </si>
+  <si>
+    <t>The snmp_trap_decode function in the SNMP NAT helper for Linux kernel before 2.6.16.18 allows remote attackers to cause a denial of service (crash) via unspecified remote attack vectors that cause failures in snmp_trap_decode that trigger (1) frees of random memory or (2) frees of previously-freed memory (double-free) by snmp_trap_decode as well as its calling function, as demonstrated via certain test cases of the PROTOS SNMP test suite.</t>
+  </si>
+  <si>
+    <t>CVE-2010-1188</t>
+  </si>
+  <si>
+    <t>Use-after-free vulnerability in net/ipv4/tcp_input.c in the Linux kernel 2.6 before 2.6.20, when IPV6_RECVPKTINFO is set on a listening socket, allows remote attackers to cause a denial of service (kernel panic) via a SYN packet while the socket is in a listening (TCP_LISTEN) state, which is not properly handled and causes the skb structure to be freed.</t>
+  </si>
+  <si>
+    <t>CVE-2010-4169</t>
+  </si>
+  <si>
+    <t>Use-after-free vulnerability in mm/mprotect.c in the Linux kernel before 2.6.37-rc2 allows local users to cause a denial of service via vectors involving an mprotect system call.</t>
+  </si>
+  <si>
+    <t>CVE-2012-2133</t>
+  </si>
+  <si>
+    <t>Use-after-free vulnerability in the Linux kernel before 3.3.6, when huge pages are enabled, allows local users to cause a denial of service (system crash) or possibly gain privileges by interacting with a hugetlbfs filesystem, as demonstrated by a umount operation that triggers improper handling of quota data.</t>
+  </si>
+  <si>
+    <t>CVE-2012-3510</t>
+  </si>
+  <si>
+    <t>Use-after-free vulnerability in the xacct_add_tsk function in kernel/tsacct.c in the Linux kernel before 2.6.19 allows local users to obtain potentially sensitive information from kernel memory or cause a denial of service (system crash) via a taskstats TASKSTATS_CMD_ATTR_PID command.</t>
+  </si>
+  <si>
+    <t>CVE-2012-3511</t>
+  </si>
+  <si>
+    <t>Multiple race conditions in the madvise_remove function in mm/madvise.c in the Linux kernel before 3.4.5 allow local users to cause a denial of service (use-after-free and system crash) via vectors involving a (1) munmap or (2) close system call.</t>
+  </si>
+  <si>
+    <t>CWE-200</t>
+  </si>
+  <si>
+    <t>Race condition in the tty_ioctl function in drivers/tty/tty_io.c in the Linux kernel through 4.4.1 allows local users to obtain sensitive information from kernel memory or cause a denial of service (use-after-free and system crash) by making a TIOCGETD ioctl call during processing of a TIOCSETD ioctl call.</t>
+  </si>
+  <si>
+    <t>The join_session_keyring function in security/keys/process_keys.c in the Linux kernel before 4.4.1 mishandles object references in a certain error case, which allows local users to gain privileges or cause a denial of service (integer overflow and use-after-free) via crafted keyctl commands.</t>
+  </si>
+  <si>
+    <t>CVE-2016-2544</t>
+  </si>
+  <si>
+    <t>Race condition in the queue_delete function in sound/core/seq/seq_queue.c in the Linux kernel before 4.4.1 allows local users to cause a denial of service (use-after-free and system crash) by making an ioctl call at a certain time.</t>
+  </si>
+  <si>
+    <t>sound/core/timer.c in the Linux kernel before 4.4.1 uses an incorrect type of mutex, which allows local users to cause a denial of service (race condition, use-after-free, and system crash) via a crafted ioctl call.</t>
+  </si>
+  <si>
+    <t>sound/core/timer.c in the Linux kernel before 4.4.1 employs a locking approach that does not consider slave timer instances, which allows local users to cause a denial of service (race condition, use-after-free, and system crash) via a crafted ioctl call.</t>
+  </si>
+  <si>
+    <t>The replace_map_fd_with_map_ptr function in kernel/bpf/verifier.c in the Linux kernel before 4.5.5 does not properly maintain an fd data structure, which allows local users to gain privileges or cause a denial of service (use-after-free) via crafted BPF instructions that reference an incorrect file descriptor.</t>
+  </si>
+  <si>
+    <t>The BPF subsystem in the Linux kernel before 4.5.5 mishandles reference counts, which allows local users to cause a denial of service (use-after-free) or possibly have unspecified other impact via a crafted application on (1) a system with more than 32 Gb of memory, related to the program reference count or (2) a 1 Tb system, related to the map reference count.</t>
+  </si>
+  <si>
+    <t>Use-after-free vulnerability in mm/percpu.c in the Linux kernel through 4.6 allows local users to cause a denial of service (BUG) or possibly have unspecified other impact via crafted use of the mmap and bpf system calls.</t>
+  </si>
+  <si>
+    <t>CVE-2016-7117</t>
+  </si>
+  <si>
+    <t>CWE-19</t>
+  </si>
+  <si>
+    <t>Use-after-free vulnerability in the __sys_recvmmsg function in net/socket.c in the Linux kernel before 4.5.2 allows remote attackers to execute arbitrary code via vectors involving a recvmmsg system call that is mishandled during error processing.</t>
+  </si>
+  <si>
+    <t>Use-after-free vulnerability in the fasync_helper function in fs/fcntl.c in the Linux kernel before 2.6.33-rc4-git1 allows local users to gain privileges via vectors that include enabling O_ASYNC (aka FASYNC or FIOASYNC) on a locked file, and then closing this file.</t>
+  </si>
+  <si>
+    <t>CVE-2014-0100</t>
+  </si>
+  <si>
+    <t>Race condition in the inet_frag_intern function in net/ipv4/inet_fragment.c in the Linux kernel through 3.13.6 allows remote attackers to cause a denial of service (use-after-free error) or possibly have unspecified other impact via a large series of fragmented ICMP Echo Request packets to a system with a heavy CPU load.</t>
+  </si>
+  <si>
+    <t>CVE-2014-0131</t>
+  </si>
+  <si>
+    <t>Use-after-free vulnerability in the skb_segment function in net/core/skbuff.c in the Linux kernel through 3.13.6 allows attackers to obtain sensitive information from kernel memory by leveraging the absence of a certain orphaning operation.</t>
+  </si>
+  <si>
+    <t>CVE-2014-0205</t>
+  </si>
+  <si>
+    <t>CWE-119</t>
+  </si>
+  <si>
+    <t>The futex_wait function in kernel/futex.c in the Linux kernel before 2.6.37 does not properly maintain a certain reference count during requeue operations, which allows local users to cause a denial of service (use-after-free and system crash) or possibly gain privileges via a crafted application that triggers a zero count.</t>
+  </si>
+  <si>
+    <t>CVE-2014-2568</t>
+  </si>
+  <si>
+    <t>Use-after-free vulnerability in the nfqnl_zcopy function in net/netfilter/nfnetlink_queue_core.c in the Linux kernel through 3.13.6 allows attackers to obtain sensitive information from kernel memory by leveraging the absence of a certain orphaning operation. NOTE: the affected code was moved to the skb_zerocopy function in net/core/skbuff.c before the vulnerability was announced.</t>
+  </si>
+  <si>
+    <t>CVE-2014-2851</t>
+  </si>
+  <si>
+    <t>CWE-189</t>
+  </si>
+  <si>
+    <t>Integer overflow in the ping_init_sock function in net/ipv4/ping.c in the Linux kernel through 3.14.1 allows local users to cause a denial of service (use-after-free and system crash) or possibly gain privileges via a crafted application that leverages an improperly managed reference counter.</t>
+  </si>
+  <si>
+    <t>sound/core/control.c in the ALSA control implementation in the Linux kernel before 3.15.2 does not ensure possession of a read/write lock, which allows local users to cause a denial of service (use-after-free) and obtain sensitive information from kernel memory by leveraging /dev/snd/controlCX access.</t>
+  </si>
+  <si>
+    <t>The snd_ctl_elem_add function in sound/core/control.c in the ALSA control implementation in the Linux kernel before 3.15.2 does not check authorization for SNDRV_CTL_IOCTL_ELEM_REPLACE commands, which allows local users to remove kernel controls and cause a denial of service (use-after-free and system crash) by leveraging /dev/snd/controlCX access for an ioctl call.</t>
+  </si>
+  <si>
+    <t>CVE-2014-5045</t>
+  </si>
+  <si>
+    <t>CWE-59</t>
+  </si>
+  <si>
+    <t>The mountpoint_last function in fs/namei.c in the Linux kernel before 3.15.8 does not properly maintain a certain reference count during attempts to use the umount system call in conjunction with a symlink, which allows local users to cause a denial of service (memory consumption or use-after-free) or possibly have unspecified other impact via the umount program.</t>
+  </si>
+  <si>
+    <t>CVE-2014-5332</t>
+  </si>
+  <si>
+    <t>Race condition in NVMap in NVIDIA Tegra Linux Kernel 3.10 allows local users to gain privileges via a crafted NVMAP_IOC_CREATE IOCTL call, which triggers a use-after-free error, as demonstrated by using a race condition to escape the Chrome sandbox.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,13 +781,90 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -252,17 +876,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -275,6 +931,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="unnormal_uaf_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -540,327 +1204,1989 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A62"/>
+  <dimension ref="A1:A80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A62"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="F3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="F5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="F8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="G8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="F11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
+    <col min="4" max="4" width="26.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="C18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="C19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="C20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C24" s="3"/>
+      <c r="D24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" display="https://nvd.nist.gov/vuln/detail/CVE-2016-10088"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://nvd.nist.gov/vuln/detail/CVE-2016-9576"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://nvd.nist.gov/vuln/detail/CVE-2016-9120"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://nvd.nist.gov/vuln/detail/CVE-2016-8655"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://nvd.nist.gov/vuln/detail/CVE-2016-7913"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://nvd.nist.gov/vuln/detail/CVE-2016-7912"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://nvd.nist.gov/vuln/detail/CVE-2016-7911"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://nvd.nist.gov/vuln/detail/CVE-2016-7910"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://nvd.nist.gov/vuln/detail/CVE-2016-6828"/>
+    <hyperlink ref="D11" r:id="rId10" display="https://nvd.nist.gov/vuln/detail/CVE-2016-7117"/>
+    <hyperlink ref="D12" r:id="rId11" display="https://nvd.nist.gov/vuln/detail/CVE-2016-3841"/>
+    <hyperlink ref="D13" r:id="rId12" display="https://nvd.nist.gov/vuln/detail/CVE-2016-4470"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://nvd.nist.gov/vuln/detail/CVE-2016-4805"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://nvd.nist.gov/vuln/detail/CVE-2016-4794"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://nvd.nist.gov/vuln/detail/CVE-2016-4558"/>
+    <hyperlink ref="D17" r:id="rId16" display="https://nvd.nist.gov/vuln/detail/CVE-2016-4557"/>
+    <hyperlink ref="D18" r:id="rId17" display="https://nvd.nist.gov/vuln/detail/CVE-2016-2547"/>
+    <hyperlink ref="D19" r:id="rId18" display="https://nvd.nist.gov/vuln/detail/CVE-2016-2546"/>
+    <hyperlink ref="D20" r:id="rId19" display="https://nvd.nist.gov/vuln/detail/CVE-2016-2544"/>
+    <hyperlink ref="D21" r:id="rId20" display="https://nvd.nist.gov/vuln/detail/CVE-2016-0728"/>
+    <hyperlink ref="D22" r:id="rId21" display="https://nvd.nist.gov/vuln/detail/CVE-2016-0723"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="44.25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="21" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="7.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>208</v>
+      </c>
+      <c r="B39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>215</v>
+      </c>
+      <c r="B43" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/UAF/kernel_UAFs.xlsx
+++ b/UAF/kernel_UAFs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="8" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="205">
   <si>
     <t>CVE-2018-10675</t>
   </si>
@@ -1193,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A80"/>
+  <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1206,32 +1206,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -1241,370 +1241,438 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>60</v>
+      <c r="A79" s="13" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>61</v>
+      <c r="A80" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="13" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:A93">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1696,7 +1764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -2484,10 +2552,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2513,13 +2581,78 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
